--- a/examples/using_spreadsheet/df_sc_or_s.xlsx
+++ b/examples/using_spreadsheet/df_sc_or_s.xlsx
@@ -1,24 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\pyequa\examples\using_spreadsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833FFE02-8BD0-4753-B742-26C728105C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Dados"/>
-    <sheet r:id="rId2" sheetId="2" name="Variáveis"/>
-    <sheet r:id="rId3" sheetId="3" name="Relações"/>
-    <sheet r:id="rId4" sheetId="4" name="Textos"/>
-    <sheet r:id="rId5" sheetId="5" name="Ajuda"/>
+    <sheet name="Dados" sheetId="1" r:id="rId1"/>
+    <sheet name="Variáveis" sheetId="2" r:id="rId2"/>
+    <sheet name="Relações" sheetId="3" r:id="rId3"/>
+    <sheet name="Textos" sheetId="4" r:id="rId4"/>
+    <sheet name="Ajuda" sheetId="5" r:id="rId5"/>
+    <sheet name="Make Of" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Para várias linhas numa célula usar ALT+ENTER .</t>
   </si>
@@ -126,9 +146,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>dados</t>
-  </si>
-  <si>
     <t>Uma string para ser usada numa caixa de EM
 (aqui vão existir várias certas)</t>
   </si>
@@ -162,14 +179,37 @@
   </si>
   <si>
     <t>aproximado ao</t>
+  </si>
+  <si>
+    <t>'2'</t>
+  </si>
+  <si>
+    <t>'4'</t>
+  </si>
+  <si>
+    <t>'10'</t>
+  </si>
+  <si>
+    <t>'20'</t>
+  </si>
+  <si>
+    <t>'100'</t>
+  </si>
+  <si>
+    <t>'1000'</t>
+  </si>
+  <si>
+    <t>"tol": 0</t>
+  </si>
+  <si>
+    <t>"tol": 0.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFe97132"/>
+      <color rgb="FFE97132"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -204,7 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFd16969"/>
+      <color rgb="FFD16969"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -236,92 +282,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,10 +369,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -373,71 +410,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,7 +502,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -488,11 +525,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -501,13 +538,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +554,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -526,7 +563,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,10 +580,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -611,162 +648,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="21">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22">
-        <f>"'" &amp; TEXT(A2,"#") &amp; "'"</f>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23">
-        <f>ROUND(SQRT(A2/(A2-1)),3)</f>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1.155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.054</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.026</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21">
-        <v>4</v>
-      </c>
-      <c r="B3" s="22">
-        <f>"'" &amp; TEXT(A3,"#") &amp; "'"</f>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="23">
-        <f>ROUND(SQRT(A3/(A3-1)),3)</f>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="21">
-        <v>10</v>
-      </c>
-      <c r="B4" s="22">
-        <f>"'" &amp; TEXT(A4,"#") &amp; "'"</f>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="23">
-        <f>ROUND(SQRT(A4/(A4-1)),3)</f>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="21">
-        <v>20</v>
-      </c>
-      <c r="B5" s="22">
-        <f>"'" &amp; TEXT(A5,"#") &amp; "'"</f>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="23">
-        <f>ROUND(SQRT(A5/(A5-1)),3)</f>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="21">
-        <v>100</v>
-      </c>
-      <c r="B6" s="22">
-        <f>"'" &amp; TEXT(A6,"#") &amp; "'"</f>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="23">
-        <f>ROUND(SQRT(A6/(A6-1)),3)</f>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="22">
-        <f>"'" &amp; TEXT(A7,"#") &amp; "'"</f>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="23">
-        <f>ROUND(SQRT(A7/(A7-1)),3)</f>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -775,292 +814,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="75.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="25.5">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="25.5">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42.75">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="12"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="25.5">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.001</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="25.5">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="53.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="28.5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="28.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="28.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1070,36 +1031,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="85.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="85.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="270.75" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="153.75" customFormat="1" s="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1" s="2" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="112.5" customFormat="1" s="4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" s="2" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1109,86 +1070,228 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="89.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="6" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+    <row r="11" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B84EF-0A03-4695-86DE-4FD46516A777}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B7" si="0">"'" &amp; TEXT(A2,"#") &amp; "'"</f>
+        <v>'2'</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="18">
+        <f t="shared" ref="E2:E7" si="1">ROUND(SQRT(A2/(A2-1)),3)</f>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>'4'</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>'10'</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.054</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>'20'</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.026</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>'100'</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>'1000'</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
